--- a/Project/sev_freq_table.xlsx
+++ b/Project/sev_freq_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="3280" windowWidth="11420" windowHeight="13140" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="33600" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Severity &amp; Frequency Chart</t>
   </si>
@@ -66,18 +66,12 @@
     <t>Notification Priority</t>
   </si>
   <si>
-    <t>relatively rare</t>
-  </si>
-  <si>
     <t>common</t>
   </si>
   <si>
     <t>rare</t>
   </si>
   <si>
-    <t>medium common</t>
-  </si>
-  <si>
     <t>Immediete</t>
   </si>
   <si>
@@ -88,13 +82,52 @@
   </si>
   <si>
     <t>every hour</t>
+  </si>
+  <si>
+    <t>Frequency Ranking</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>semi-rare</t>
+  </si>
+  <si>
+    <t>very frequent</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Priority Treatment</t>
+  </si>
+  <si>
+    <t>&gt;= 10</t>
+  </si>
+  <si>
+    <t>Every hour</t>
+  </si>
+  <si>
+    <t>4 to 6</t>
+  </si>
+  <si>
+    <t>7 to 9</t>
+  </si>
+  <si>
+    <t>3 or less</t>
+  </si>
+  <si>
+    <t>Priority Score        (rank + frequency)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +177,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -161,23 +209,238 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,142 +770,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="20">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="32" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="16">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13">
+        <f>C3+D3</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <f>C4+D4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14">
+        <f>C5+D5</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <f>C6+D6</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <f>C7+D7</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14">
+        <f>C8+D8</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <f>C9+D9</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <f>C10+D10</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="82" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
